--- a/3.Data-Science-Specializations.xlsx
+++ b/3.Data-Science-Specializations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BC5E33-E07B-4BC3-B916-44A3C57108CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7499F2A-1B93-4627-9D4E-C19373BD9403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="768" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16719,33 +16719,33 @@
       <c r="I125" s="51"/>
       <c r="J125" s="51"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="58" t="s">
-        <v>139</v>
+        <v>549</v>
       </c>
       <c r="B126" s="52" t="s">
-        <v>140</v>
+        <v>550</v>
       </c>
       <c r="C126" s="46" t="s">
-        <v>142</v>
+        <v>551</v>
       </c>
       <c r="D126" s="52" t="s">
-        <v>141</v>
+        <v>555</v>
       </c>
       <c r="E126" s="46" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F126" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="G126" s="38" t="s">
+      <c r="G126" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H126" s="41" t="s">
-        <v>598</v>
+        <v>1188</v>
       </c>
       <c r="I126" s="49">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J126" s="49"/>
     </row>
@@ -16756,58 +16756,42 @@
       <c r="D127" s="53"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
-      <c r="G127" s="39" t="s">
-        <v>7</v>
-      </c>
+      <c r="G127" s="55"/>
       <c r="H127" s="42" t="s">
-        <v>599</v>
+        <v>1189</v>
       </c>
       <c r="I127" s="50"/>
       <c r="J127" s="50"/>
     </row>
-    <row r="128" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="59"/>
       <c r="B128" s="53"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="48"/>
-      <c r="G128" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H128" s="43" t="s">
-        <v>600</v>
-      </c>
-      <c r="I128" s="51"/>
-      <c r="J128" s="51"/>
-    </row>
-    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="47"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="42" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I128" s="50"/>
+      <c r="J128" s="50"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="59"/>
       <c r="B129" s="53"/>
-      <c r="C129" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D129" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E129" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F129" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G129" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H129" s="41" t="s">
-        <v>601</v>
-      </c>
-      <c r="I129" s="49">
-        <v>20</v>
-      </c>
-      <c r="J129" s="49"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C129" s="47"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="42" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I129" s="50"/>
+      <c r="J129" s="50"/>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="59"/>
       <c r="B130" s="53"/>
       <c r="C130" s="47"/>
@@ -16816,28 +16800,38 @@
       <c r="F130" s="47"/>
       <c r="G130" s="55"/>
       <c r="H130" s="42" t="s">
-        <v>602</v>
+        <v>1192</v>
       </c>
       <c r="I130" s="50"/>
       <c r="J130" s="50"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="59"/>
       <c r="B131" s="53"/>
-      <c r="C131" s="47"/>
-      <c r="D131" s="53"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H131" s="42" t="s">
-        <v>603</v>
-      </c>
-      <c r="I131" s="50"/>
-      <c r="J131" s="50"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C131" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="D131" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="E131" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="F131" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G131" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H131" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" s="49">
+        <v>15</v>
+      </c>
+      <c r="J131" s="49"/>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="59"/>
       <c r="B132" s="53"/>
       <c r="C132" s="47"/>
@@ -16846,7 +16840,7 @@
       <c r="F132" s="47"/>
       <c r="G132" s="55"/>
       <c r="H132" s="42" t="s">
-        <v>604</v>
+        <v>557</v>
       </c>
       <c r="I132" s="50"/>
       <c r="J132" s="50"/>
@@ -16859,124 +16853,108 @@
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H133" s="42" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="I133" s="50"/>
       <c r="J133" s="50"/>
     </row>
-    <row r="134" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="59"/>
       <c r="B134" s="53"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="56"/>
-      <c r="H134" s="43" t="s">
-        <v>606</v>
-      </c>
-      <c r="I134" s="51"/>
-      <c r="J134" s="51"/>
-    </row>
-    <row r="135" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="47"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="42" t="s">
+        <v>559</v>
+      </c>
+      <c r="I134" s="50"/>
+      <c r="J134" s="50"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="59"/>
       <c r="B135" s="53"/>
-      <c r="C135" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D135" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="E135" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F135" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G135" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H135" s="41" t="s">
-        <v>607</v>
-      </c>
-      <c r="I135" s="49">
-        <v>10</v>
-      </c>
-      <c r="J135" s="49"/>
-    </row>
-    <row r="136" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="47"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="I135" s="50"/>
+      <c r="J135" s="50"/>
+    </row>
+    <row r="136" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="59"/>
       <c r="B136" s="53"/>
-      <c r="C136" s="47"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="47"/>
-      <c r="G136" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H136" s="42" t="s">
-        <v>608</v>
-      </c>
-      <c r="I136" s="50"/>
-      <c r="J136" s="50"/>
-    </row>
-    <row r="137" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="48"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="48"/>
+      <c r="F136" s="48"/>
+      <c r="G136" s="56"/>
+      <c r="H136" s="43" t="s">
+        <v>561</v>
+      </c>
+      <c r="I136" s="51"/>
+      <c r="J136" s="51"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="59"/>
       <c r="B137" s="53"/>
-      <c r="C137" s="48"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="48"/>
-      <c r="F137" s="48"/>
-      <c r="G137" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H137" s="43" t="s">
-        <v>609</v>
-      </c>
-      <c r="I137" s="51"/>
-      <c r="J137" s="51"/>
+      <c r="C137" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="D137" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="E137" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="F137" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G137" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H137" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I137" s="49">
+        <v>15</v>
+      </c>
+      <c r="J137" s="49"/>
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="59"/>
       <c r="B138" s="53"/>
-      <c r="C138" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D138" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E138" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F138" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G138" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H138" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="I138" s="49">
-        <v>20</v>
-      </c>
-      <c r="J138" s="49"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C138" s="47"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="I138" s="50"/>
+      <c r="J138" s="50"/>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="59"/>
       <c r="B139" s="53"/>
       <c r="C139" s="47"/>
       <c r="D139" s="53"/>
       <c r="E139" s="47"/>
       <c r="F139" s="47"/>
-      <c r="G139" s="39" t="s">
-        <v>7</v>
-      </c>
+      <c r="G139" s="55"/>
       <c r="H139" s="42" t="s">
-        <v>280</v>
+        <v>565</v>
       </c>
       <c r="I139" s="50"/>
       <c r="J139" s="50"/>
@@ -16988,11 +16966,11 @@
       <c r="D140" s="53"/>
       <c r="E140" s="47"/>
       <c r="F140" s="47"/>
-      <c r="G140" s="39" t="s">
-        <v>8</v>
+      <c r="G140" s="55" t="s">
+        <v>7</v>
       </c>
       <c r="H140" s="42" t="s">
-        <v>281</v>
+        <v>566</v>
       </c>
       <c r="I140" s="50"/>
       <c r="J140" s="50"/>
@@ -17004,130 +16982,108 @@
       <c r="D141" s="53"/>
       <c r="E141" s="47"/>
       <c r="F141" s="47"/>
-      <c r="G141" s="39" t="s">
-        <v>6</v>
-      </c>
+      <c r="G141" s="55"/>
       <c r="H141" s="42" t="s">
-        <v>282</v>
+        <v>567</v>
       </c>
       <c r="I141" s="50"/>
       <c r="J141" s="50"/>
     </row>
-    <row r="142" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="59"/>
       <c r="B142" s="53"/>
-      <c r="C142" s="48"/>
-      <c r="D142" s="54"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="48"/>
-      <c r="G142" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="H142" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="I142" s="51"/>
-      <c r="J142" s="51"/>
-    </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="47"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="47"/>
+      <c r="G142" s="55"/>
+      <c r="H142" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="I142" s="50"/>
+      <c r="J142" s="50"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="59"/>
       <c r="B143" s="53"/>
-      <c r="C143" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D143" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E143" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F143" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G143" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H143" s="41" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I143" s="49">
-        <v>15</v>
-      </c>
-      <c r="J143" s="49"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C143" s="47"/>
+      <c r="D143" s="53"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="55"/>
+      <c r="H143" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="I143" s="50"/>
+      <c r="J143" s="50"/>
+    </row>
+    <row r="144" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="59"/>
       <c r="B144" s="53"/>
-      <c r="C144" s="47"/>
-      <c r="D144" s="53"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H144" s="42" t="s">
-        <v>1169</v>
-      </c>
-      <c r="I144" s="50"/>
-      <c r="J144" s="50"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C144" s="48"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="56"/>
+      <c r="H144" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I144" s="51"/>
+      <c r="J144" s="51"/>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="59"/>
       <c r="B145" s="53"/>
-      <c r="C145" s="47"/>
-      <c r="D145" s="53"/>
-      <c r="E145" s="47"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H145" s="42" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I145" s="50"/>
-      <c r="J145" s="50"/>
-    </row>
-    <row r="146" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="D145" s="52" t="s">
+        <v>563</v>
+      </c>
+      <c r="E145" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="F145" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G145" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H145" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" s="49">
+        <v>15</v>
+      </c>
+      <c r="J145" s="49"/>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="59"/>
       <c r="B146" s="53"/>
-      <c r="C146" s="48"/>
-      <c r="D146" s="54"/>
-      <c r="E146" s="48"/>
-      <c r="F146" s="48"/>
-      <c r="G146" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H146" s="43" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I146" s="51"/>
-      <c r="J146" s="51"/>
+      <c r="C146" s="47"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="47"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="I146" s="50"/>
+      <c r="J146" s="50"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="59"/>
       <c r="B147" s="53"/>
-      <c r="C147" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D147" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="E147" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F147" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G147" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H147" s="41" t="s">
-        <v>610</v>
-      </c>
-      <c r="I147" s="49">
-        <v>15</v>
-      </c>
-      <c r="J147" s="49"/>
+      <c r="C147" s="47"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="I147" s="50"/>
+      <c r="J147" s="50"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="59"/>
@@ -17136,11 +17092,11 @@
       <c r="D148" s="53"/>
       <c r="E148" s="47"/>
       <c r="F148" s="47"/>
-      <c r="G148" s="39" t="s">
+      <c r="G148" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H148" s="20" t="s">
-        <v>611</v>
+      <c r="H148" s="42" t="s">
+        <v>571</v>
       </c>
       <c r="I148" s="50"/>
       <c r="J148" s="50"/>
@@ -17152,46 +17108,56 @@
       <c r="D149" s="53"/>
       <c r="E149" s="47"/>
       <c r="F149" s="47"/>
-      <c r="G149" s="39" t="s">
-        <v>8</v>
-      </c>
+      <c r="G149" s="55"/>
       <c r="H149" s="42" t="s">
-        <v>39</v>
+        <v>572</v>
       </c>
       <c r="I149" s="50"/>
       <c r="J149" s="50"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="59"/>
-      <c r="B150" s="53"/>
-      <c r="C150" s="47"/>
-      <c r="D150" s="53"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="47"/>
-      <c r="G150" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H150" s="42" t="s">
-        <v>612</v>
-      </c>
-      <c r="I150" s="50"/>
-      <c r="J150" s="50"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="59"/>
-      <c r="B151" s="53"/>
-      <c r="C151" s="47"/>
-      <c r="D151" s="53"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="47"/>
-      <c r="G151" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="H151" s="42" t="s">
-        <v>613</v>
-      </c>
-      <c r="I151" s="50"/>
-      <c r="J151" s="50"/>
+    <row r="150" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="60"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="48"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="48"/>
+      <c r="G150" s="56"/>
+      <c r="H150" s="43" t="s">
+        <v>561</v>
+      </c>
+      <c r="I150" s="51"/>
+      <c r="J150" s="51"/>
+    </row>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="B151" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="C151" s="46" t="s">
+        <v>575</v>
+      </c>
+      <c r="D151" s="52" t="s">
+        <v>579</v>
+      </c>
+      <c r="E151" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F151" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="G151" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H151" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="I151" s="49">
+        <v>25</v>
+      </c>
+      <c r="J151" s="49"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="59"/>
@@ -17201,113 +17167,101 @@
       <c r="E152" s="47"/>
       <c r="F152" s="47"/>
       <c r="G152" s="39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H152" s="42" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="I152" s="50"/>
       <c r="J152" s="50"/>
     </row>
-    <row r="153" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="59"/>
       <c r="B153" s="53"/>
-      <c r="C153" s="48"/>
-      <c r="D153" s="54"/>
-      <c r="E153" s="48"/>
-      <c r="F153" s="48"/>
-      <c r="G153" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H153" s="43" t="s">
-        <v>615</v>
-      </c>
-      <c r="I153" s="51"/>
-      <c r="J153" s="51"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C153" s="47"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="I153" s="50"/>
+      <c r="J153" s="50"/>
+    </row>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="59"/>
       <c r="B154" s="53"/>
-      <c r="C154" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D154" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="E154" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F154" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G154" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H154" s="41" t="s">
-        <v>616</v>
-      </c>
-      <c r="I154" s="49">
-        <v>20</v>
-      </c>
-      <c r="J154" s="49"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C154" s="47"/>
+      <c r="D154" s="53"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="47"/>
+      <c r="G154" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H154" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="I154" s="50"/>
+      <c r="J154" s="50"/>
+    </row>
+    <row r="155" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="59"/>
       <c r="B155" s="53"/>
-      <c r="C155" s="47"/>
-      <c r="D155" s="53"/>
-      <c r="E155" s="47"/>
+      <c r="C155" s="48"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="48"/>
       <c r="F155" s="47"/>
-      <c r="G155" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H155" s="42" t="s">
-        <v>617</v>
-      </c>
-      <c r="I155" s="50"/>
-      <c r="J155" s="50"/>
-    </row>
-    <row r="156" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G155" s="56"/>
+      <c r="H155" s="43" t="s">
+        <v>585</v>
+      </c>
+      <c r="I155" s="51"/>
+      <c r="J155" s="51"/>
+    </row>
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="59"/>
       <c r="B156" s="53"/>
-      <c r="C156" s="48"/>
-      <c r="D156" s="54"/>
-      <c r="E156" s="48"/>
-      <c r="F156" s="48"/>
-      <c r="G156" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H156" s="43" t="s">
-        <v>618</v>
-      </c>
-      <c r="I156" s="51"/>
-      <c r="J156" s="51"/>
-    </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="D156" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="E156" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F156" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="G156" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H156" s="41" t="s">
+        <v>586</v>
+      </c>
+      <c r="I156" s="49">
+        <v>10</v>
+      </c>
+      <c r="J156" s="49"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="59"/>
       <c r="B157" s="53"/>
-      <c r="C157" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D157" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="E157" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F157" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G157" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H157" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="I157" s="49">
-        <v>25</v>
-      </c>
-      <c r="J157" s="49"/>
+      <c r="C157" s="47"/>
+      <c r="D157" s="53"/>
+      <c r="E157" s="47"/>
+      <c r="F157" s="47"/>
+      <c r="G157" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H157" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="I157" s="50"/>
+      <c r="J157" s="50"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="59"/>
@@ -17317,45 +17271,55 @@
       <c r="E158" s="47"/>
       <c r="F158" s="47"/>
       <c r="G158" s="39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H158" s="42" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="I158" s="50"/>
       <c r="J158" s="50"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="59"/>
       <c r="B159" s="53"/>
-      <c r="C159" s="47"/>
-      <c r="D159" s="53"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H159" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="I159" s="50"/>
-      <c r="J159" s="50"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C159" s="48"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="48"/>
+      <c r="F159" s="48"/>
+      <c r="G159" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159" s="51"/>
+      <c r="J159" s="51"/>
+    </row>
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="59"/>
       <c r="B160" s="53"/>
-      <c r="C160" s="47"/>
-      <c r="D160" s="53"/>
-      <c r="E160" s="47"/>
-      <c r="F160" s="47"/>
-      <c r="G160" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H160" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="I160" s="50"/>
-      <c r="J160" s="50"/>
+      <c r="C160" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="D160" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="E160" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F160" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="G160" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H160" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I160" s="49">
+        <v>10</v>
+      </c>
+      <c r="J160" s="49"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="59"/>
@@ -17365,10 +17329,10 @@
       <c r="E161" s="47"/>
       <c r="F161" s="47"/>
       <c r="G161" s="39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H161" s="42" t="s">
-        <v>34</v>
+        <v>589</v>
       </c>
       <c r="I161" s="50"/>
       <c r="J161" s="50"/>
@@ -17379,12 +17343,12 @@
       <c r="C162" s="48"/>
       <c r="D162" s="54"/>
       <c r="E162" s="48"/>
-      <c r="F162" s="48"/>
-      <c r="G162" s="39" t="s">
-        <v>9</v>
+      <c r="F162" s="47"/>
+      <c r="G162" s="40" t="s">
+        <v>8</v>
       </c>
       <c r="H162" s="43" t="s">
-        <v>38</v>
+        <v>590</v>
       </c>
       <c r="I162" s="51"/>
       <c r="J162" s="51"/>
@@ -17393,29 +17357,29 @@
       <c r="A163" s="59"/>
       <c r="B163" s="53"/>
       <c r="C163" s="46" t="s">
-        <v>158</v>
+        <v>578</v>
       </c>
       <c r="D163" s="52" t="s">
-        <v>156</v>
+        <v>591</v>
       </c>
       <c r="E163" s="46" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F163" s="46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G163" s="38" t="s">
         <v>4</v>
       </c>
       <c r="H163" s="41" t="s">
-        <v>19</v>
+        <v>592</v>
       </c>
       <c r="I163" s="49">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J163" s="49"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="59"/>
       <c r="B164" s="53"/>
       <c r="C164" s="47"/>
@@ -17426,7 +17390,7 @@
         <v>7</v>
       </c>
       <c r="H164" s="42" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="I164" s="50"/>
       <c r="J164" s="50"/>
@@ -17442,12 +17406,12 @@
         <v>8</v>
       </c>
       <c r="H165" s="42" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="I165" s="50"/>
       <c r="J165" s="50"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="59"/>
       <c r="B166" s="53"/>
       <c r="C166" s="47"/>
@@ -17458,70 +17422,72 @@
         <v>6</v>
       </c>
       <c r="H166" s="42" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="I166" s="50"/>
       <c r="J166" s="50"/>
     </row>
-    <row r="167" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="60"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="48"/>
-      <c r="D167" s="54"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="48"/>
-      <c r="G167" s="40" t="s">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="59"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="47"/>
+      <c r="D167" s="53"/>
+      <c r="E167" s="47"/>
+      <c r="F167" s="47"/>
+      <c r="G167" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H167" s="43" t="s">
-        <v>622</v>
-      </c>
-      <c r="I167" s="51"/>
-      <c r="J167" s="51"/>
-    </row>
-    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="58" t="s">
-        <v>549</v>
-      </c>
-      <c r="B168" s="52" t="s">
-        <v>550</v>
-      </c>
-      <c r="C168" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="D168" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="E168" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="F168" s="46" t="s">
+      <c r="H167" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="I167" s="50"/>
+      <c r="J167" s="50"/>
+    </row>
+    <row r="168" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="60"/>
+      <c r="B168" s="54"/>
+      <c r="C168" s="48"/>
+      <c r="D168" s="54"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="48"/>
+      <c r="G168" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H168" s="43" t="s">
+        <v>597</v>
+      </c>
+      <c r="I168" s="51"/>
+      <c r="J168" s="51"/>
+    </row>
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="58" t="s">
+        <v>987</v>
+      </c>
+      <c r="B169" s="52" t="s">
+        <v>988</v>
+      </c>
+      <c r="C169" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D169" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E169" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F169" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="G168" s="57" t="s">
+      <c r="G169" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H168" s="41" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I168" s="49">
-        <v>15</v>
-      </c>
-      <c r="J168" s="49"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="59"/>
-      <c r="B169" s="53"/>
-      <c r="C169" s="47"/>
-      <c r="D169" s="53"/>
-      <c r="E169" s="47"/>
-      <c r="F169" s="47"/>
-      <c r="G169" s="55"/>
-      <c r="H169" s="42" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I169" s="50"/>
-      <c r="J169" s="50"/>
+      <c r="H169" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="I169" s="49">
+        <v>10</v>
+      </c>
+      <c r="J169" s="49"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="59"/>
@@ -17530,77 +17496,83 @@
       <c r="D170" s="53"/>
       <c r="E170" s="47"/>
       <c r="F170" s="47"/>
-      <c r="G170" s="55"/>
+      <c r="G170" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="H170" s="42" t="s">
-        <v>1190</v>
+        <v>599</v>
       </c>
       <c r="I170" s="50"/>
       <c r="J170" s="50"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="59"/>
       <c r="B171" s="53"/>
-      <c r="C171" s="47"/>
-      <c r="D171" s="53"/>
-      <c r="E171" s="47"/>
+      <c r="C171" s="48"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="48"/>
       <c r="F171" s="47"/>
-      <c r="G171" s="55"/>
-      <c r="H171" s="42" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I171" s="50"/>
-      <c r="J171" s="50"/>
-    </row>
-    <row r="172" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G171" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="43" t="s">
+        <v>600</v>
+      </c>
+      <c r="I171" s="51"/>
+      <c r="J171" s="51"/>
+    </row>
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="59"/>
       <c r="B172" s="53"/>
-      <c r="C172" s="47"/>
-      <c r="D172" s="53"/>
-      <c r="E172" s="47"/>
-      <c r="F172" s="47"/>
-      <c r="G172" s="55"/>
-      <c r="H172" s="42" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I172" s="50"/>
-      <c r="J172" s="50"/>
+      <c r="C172" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D172" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E172" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F172" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G172" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H172" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="I172" s="49">
+        <v>20</v>
+      </c>
+      <c r="J172" s="49"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="59"/>
       <c r="B173" s="53"/>
-      <c r="C173" s="46" t="s">
-        <v>552</v>
-      </c>
-      <c r="D173" s="52" t="s">
-        <v>556</v>
-      </c>
-      <c r="E173" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="F173" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G173" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H173" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I173" s="49">
-        <v>15</v>
-      </c>
-      <c r="J173" s="49"/>
-    </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="47"/>
+      <c r="D173" s="53"/>
+      <c r="E173" s="47"/>
+      <c r="F173" s="47"/>
+      <c r="G173" s="55"/>
+      <c r="H173" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="I173" s="50"/>
+      <c r="J173" s="50"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="59"/>
       <c r="B174" s="53"/>
       <c r="C174" s="47"/>
       <c r="D174" s="53"/>
       <c r="E174" s="47"/>
       <c r="F174" s="47"/>
-      <c r="G174" s="55"/>
+      <c r="G174" s="55" t="s">
+        <v>7</v>
+      </c>
       <c r="H174" s="42" t="s">
-        <v>557</v>
+        <v>603</v>
       </c>
       <c r="I174" s="50"/>
       <c r="J174" s="50"/>
@@ -17612,11 +17584,9 @@
       <c r="D175" s="53"/>
       <c r="E175" s="47"/>
       <c r="F175" s="47"/>
-      <c r="G175" s="55" t="s">
-        <v>7</v>
-      </c>
+      <c r="G175" s="55"/>
       <c r="H175" s="42" t="s">
-        <v>558</v>
+        <v>604</v>
       </c>
       <c r="I175" s="50"/>
       <c r="J175" s="50"/>
@@ -17628,96 +17598,112 @@
       <c r="D176" s="53"/>
       <c r="E176" s="47"/>
       <c r="F176" s="47"/>
-      <c r="G176" s="55"/>
+      <c r="G176" s="55" t="s">
+        <v>8</v>
+      </c>
       <c r="H176" s="42" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="I176" s="50"/>
       <c r="J176" s="50"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="59"/>
       <c r="B177" s="53"/>
-      <c r="C177" s="47"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="47"/>
-      <c r="F177" s="47"/>
-      <c r="G177" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H177" s="42" t="s">
-        <v>560</v>
-      </c>
-      <c r="I177" s="50"/>
-      <c r="J177" s="50"/>
-    </row>
-    <row r="178" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="48"/>
+      <c r="D177" s="54"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="56"/>
+      <c r="H177" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="I177" s="51"/>
+      <c r="J177" s="51"/>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="59"/>
       <c r="B178" s="53"/>
-      <c r="C178" s="48"/>
-      <c r="D178" s="54"/>
-      <c r="E178" s="48"/>
-      <c r="F178" s="48"/>
-      <c r="G178" s="56"/>
-      <c r="H178" s="43" t="s">
-        <v>561</v>
-      </c>
-      <c r="I178" s="51"/>
-      <c r="J178" s="51"/>
-    </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D178" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E178" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F178" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G178" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H178" s="41" t="s">
+        <v>607</v>
+      </c>
+      <c r="I178" s="49">
+        <v>10</v>
+      </c>
+      <c r="J178" s="49"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="59"/>
       <c r="B179" s="53"/>
-      <c r="C179" s="46" t="s">
-        <v>553</v>
-      </c>
-      <c r="D179" s="52" t="s">
-        <v>562</v>
-      </c>
-      <c r="E179" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="F179" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G179" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H179" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I179" s="49">
-        <v>15</v>
-      </c>
-      <c r="J179" s="49"/>
-    </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="47"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H179" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="I179" s="50"/>
+      <c r="J179" s="50"/>
+    </row>
+    <row r="180" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="59"/>
       <c r="B180" s="53"/>
-      <c r="C180" s="47"/>
-      <c r="D180" s="53"/>
-      <c r="E180" s="47"/>
+      <c r="C180" s="48"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="48"/>
       <c r="F180" s="47"/>
-      <c r="G180" s="55"/>
-      <c r="H180" s="42" t="s">
-        <v>564</v>
-      </c>
-      <c r="I180" s="50"/>
-      <c r="J180" s="50"/>
+      <c r="G180" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="I180" s="51"/>
+      <c r="J180" s="51"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="59"/>
       <c r="B181" s="53"/>
-      <c r="C181" s="47"/>
-      <c r="D181" s="53"/>
-      <c r="E181" s="47"/>
-      <c r="F181" s="47"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="42" t="s">
-        <v>565</v>
-      </c>
-      <c r="I181" s="50"/>
-      <c r="J181" s="50"/>
+      <c r="C181" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D181" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E181" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F181" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G181" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H181" s="41" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I181" s="49">
+        <v>15</v>
+      </c>
+      <c r="J181" s="49"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="59"/>
@@ -17726,11 +17712,11 @@
       <c r="D182" s="53"/>
       <c r="E182" s="47"/>
       <c r="F182" s="47"/>
-      <c r="G182" s="55" t="s">
+      <c r="G182" s="39" t="s">
         <v>7</v>
       </c>
       <c r="H182" s="42" t="s">
-        <v>566</v>
+        <v>1169</v>
       </c>
       <c r="I182" s="50"/>
       <c r="J182" s="50"/>
@@ -17742,96 +17728,120 @@
       <c r="D183" s="53"/>
       <c r="E183" s="47"/>
       <c r="F183" s="47"/>
-      <c r="G183" s="55"/>
+      <c r="G183" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="H183" s="42" t="s">
-        <v>567</v>
+        <v>1170</v>
       </c>
       <c r="I183" s="50"/>
       <c r="J183" s="50"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="59"/>
-      <c r="B184" s="53"/>
-      <c r="C184" s="47"/>
-      <c r="D184" s="53"/>
-      <c r="E184" s="47"/>
-      <c r="F184" s="47"/>
-      <c r="G184" s="55"/>
-      <c r="H184" s="42" t="s">
-        <v>568</v>
-      </c>
-      <c r="I184" s="50"/>
-      <c r="J184" s="50"/>
+    <row r="184" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="60"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="48"/>
+      <c r="D184" s="54"/>
+      <c r="E184" s="48"/>
+      <c r="F184" s="48"/>
+      <c r="G184" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H184" s="43" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I184" s="51"/>
+      <c r="J184" s="51"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="59"/>
-      <c r="B185" s="53"/>
-      <c r="C185" s="47"/>
-      <c r="D185" s="53"/>
-      <c r="E185" s="47"/>
-      <c r="F185" s="47"/>
-      <c r="G185" s="55"/>
-      <c r="H185" s="42" t="s">
-        <v>569</v>
-      </c>
-      <c r="I185" s="50"/>
-      <c r="J185" s="50"/>
-    </row>
-    <row r="186" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B185" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C185" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D185" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E185" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F185" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G185" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H185" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="I185" s="49">
+        <v>10</v>
+      </c>
+      <c r="J185" s="49"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="59"/>
       <c r="B186" s="53"/>
-      <c r="C186" s="48"/>
-      <c r="D186" s="54"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="48"/>
-      <c r="G186" s="56"/>
-      <c r="H186" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="I186" s="51"/>
-      <c r="J186" s="51"/>
-    </row>
-    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="47"/>
+      <c r="D186" s="53"/>
+      <c r="E186" s="47"/>
+      <c r="F186" s="47"/>
+      <c r="G186" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H186" s="42" t="s">
+        <v>599</v>
+      </c>
+      <c r="I186" s="50"/>
+      <c r="J186" s="50"/>
+    </row>
+    <row r="187" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="59"/>
       <c r="B187" s="53"/>
-      <c r="C187" s="46" t="s">
-        <v>554</v>
-      </c>
-      <c r="D187" s="52" t="s">
-        <v>563</v>
-      </c>
-      <c r="E187" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="F187" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G187" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H187" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I187" s="49">
-        <v>15</v>
-      </c>
-      <c r="J187" s="49"/>
+      <c r="C187" s="48"/>
+      <c r="D187" s="54"/>
+      <c r="E187" s="48"/>
+      <c r="F187" s="48"/>
+      <c r="G187" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H187" s="43" t="s">
+        <v>600</v>
+      </c>
+      <c r="I187" s="51"/>
+      <c r="J187" s="51"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="59"/>
       <c r="B188" s="53"/>
-      <c r="C188" s="47"/>
-      <c r="D188" s="53"/>
-      <c r="E188" s="47"/>
-      <c r="F188" s="47"/>
-      <c r="G188" s="55"/>
-      <c r="H188" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="I188" s="50"/>
-      <c r="J188" s="50"/>
-    </row>
-    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D188" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E188" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F188" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G188" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H188" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="I188" s="49">
+        <v>20</v>
+      </c>
+      <c r="J188" s="49"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="59"/>
       <c r="B189" s="53"/>
       <c r="C189" s="47"/>
@@ -17840,7 +17850,7 @@
       <c r="F189" s="47"/>
       <c r="G189" s="55"/>
       <c r="H189" s="42" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="I189" s="50"/>
       <c r="J189" s="50"/>
@@ -17856,7 +17866,7 @@
         <v>7</v>
       </c>
       <c r="H190" s="42" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="I190" s="50"/>
       <c r="J190" s="50"/>
@@ -17870,126 +17880,124 @@
       <c r="F191" s="47"/>
       <c r="G191" s="55"/>
       <c r="H191" s="42" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="I191" s="50"/>
       <c r="J191" s="50"/>
     </row>
-    <row r="192" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="60"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="48"/>
-      <c r="D192" s="54"/>
-      <c r="E192" s="48"/>
-      <c r="F192" s="48"/>
-      <c r="G192" s="56"/>
-      <c r="H192" s="43" t="s">
-        <v>561</v>
-      </c>
-      <c r="I192" s="51"/>
-      <c r="J192" s="51"/>
-    </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="58" t="s">
-        <v>987</v>
-      </c>
-      <c r="B193" s="52" t="s">
-        <v>988</v>
-      </c>
-      <c r="C193" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D193" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E193" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F193" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G193" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H193" s="41" t="s">
-        <v>598</v>
-      </c>
-      <c r="I193" s="49">
-        <v>10</v>
-      </c>
-      <c r="J193" s="49"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="59"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="47"/>
+      <c r="D192" s="53"/>
+      <c r="E192" s="47"/>
+      <c r="F192" s="47"/>
+      <c r="G192" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="I192" s="50"/>
+      <c r="J192" s="50"/>
+    </row>
+    <row r="193" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="59"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="48"/>
+      <c r="D193" s="54"/>
+      <c r="E193" s="48"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="56"/>
+      <c r="H193" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="I193" s="51"/>
+      <c r="J193" s="51"/>
+    </row>
+    <row r="194" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="59"/>
       <c r="B194" s="53"/>
-      <c r="C194" s="47"/>
-      <c r="D194" s="53"/>
-      <c r="E194" s="47"/>
-      <c r="F194" s="47"/>
-      <c r="G194" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H194" s="42" t="s">
-        <v>599</v>
-      </c>
-      <c r="I194" s="50"/>
-      <c r="J194" s="50"/>
-    </row>
-    <row r="195" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C194" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D194" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E194" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F194" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G194" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H194" s="41" t="s">
+        <v>607</v>
+      </c>
+      <c r="I194" s="49">
+        <v>10</v>
+      </c>
+      <c r="J194" s="49"/>
+    </row>
+    <row r="195" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="59"/>
       <c r="B195" s="53"/>
-      <c r="C195" s="48"/>
-      <c r="D195" s="54"/>
-      <c r="E195" s="48"/>
+      <c r="C195" s="47"/>
+      <c r="D195" s="53"/>
+      <c r="E195" s="47"/>
       <c r="F195" s="47"/>
-      <c r="G195" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H195" s="43" t="s">
-        <v>600</v>
-      </c>
-      <c r="I195" s="51"/>
-      <c r="J195" s="51"/>
-    </row>
-    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G195" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H195" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="I195" s="50"/>
+      <c r="J195" s="50"/>
+    </row>
+    <row r="196" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="59"/>
       <c r="B196" s="53"/>
-      <c r="C196" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D196" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E196" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F196" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G196" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H196" s="41" t="s">
-        <v>601</v>
-      </c>
-      <c r="I196" s="49">
-        <v>20</v>
-      </c>
-      <c r="J196" s="49"/>
+      <c r="C196" s="48"/>
+      <c r="D196" s="54"/>
+      <c r="E196" s="48"/>
+      <c r="F196" s="48"/>
+      <c r="G196" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H196" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="I196" s="51"/>
+      <c r="J196" s="51"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="59"/>
       <c r="B197" s="53"/>
-      <c r="C197" s="47"/>
-      <c r="D197" s="53"/>
-      <c r="E197" s="47"/>
-      <c r="F197" s="47"/>
-      <c r="G197" s="55"/>
-      <c r="H197" s="42" t="s">
-        <v>602</v>
-      </c>
-      <c r="I197" s="50"/>
-      <c r="J197" s="50"/>
+      <c r="C197" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D197" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E197" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F197" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G197" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H197" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="I197" s="49">
+        <v>20</v>
+      </c>
+      <c r="J197" s="49"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="59"/>
@@ -17998,11 +18006,11 @@
       <c r="D198" s="53"/>
       <c r="E198" s="47"/>
       <c r="F198" s="47"/>
-      <c r="G198" s="55" t="s">
+      <c r="G198" s="39" t="s">
         <v>7</v>
       </c>
       <c r="H198" s="42" t="s">
-        <v>603</v>
+        <v>280</v>
       </c>
       <c r="I198" s="50"/>
       <c r="J198" s="50"/>
@@ -18014,9 +18022,11 @@
       <c r="D199" s="53"/>
       <c r="E199" s="47"/>
       <c r="F199" s="47"/>
-      <c r="G199" s="55"/>
+      <c r="G199" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="H199" s="42" t="s">
-        <v>604</v>
+        <v>281</v>
       </c>
       <c r="I199" s="50"/>
       <c r="J199" s="50"/>
@@ -18028,11 +18038,11 @@
       <c r="D200" s="53"/>
       <c r="E200" s="47"/>
       <c r="F200" s="47"/>
-      <c r="G200" s="55" t="s">
-        <v>8</v>
+      <c r="G200" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="H200" s="42" t="s">
-        <v>605</v>
+        <v>282</v>
       </c>
       <c r="I200" s="50"/>
       <c r="J200" s="50"/>
@@ -18044,9 +18054,11 @@
       <c r="D201" s="54"/>
       <c r="E201" s="48"/>
       <c r="F201" s="48"/>
-      <c r="G201" s="56"/>
+      <c r="G201" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="H201" s="43" t="s">
-        <v>606</v>
+        <v>283</v>
       </c>
       <c r="I201" s="51"/>
       <c r="J201" s="51"/>
@@ -18055,10 +18067,10 @@
       <c r="A202" s="59"/>
       <c r="B202" s="53"/>
       <c r="C202" s="46" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D202" s="52" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E202" s="46" t="s">
         <v>254</v>
@@ -18070,10 +18082,10 @@
         <v>4</v>
       </c>
       <c r="H202" s="41" t="s">
-        <v>607</v>
+        <v>1168</v>
       </c>
       <c r="I202" s="49">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J202" s="49"/>
     </row>
@@ -18088,68 +18100,68 @@
         <v>7</v>
       </c>
       <c r="H203" s="42" t="s">
-        <v>608</v>
+        <v>1169</v>
       </c>
       <c r="I203" s="50"/>
       <c r="J203" s="50"/>
     </row>
-    <row r="204" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="59"/>
       <c r="B204" s="53"/>
-      <c r="C204" s="48"/>
-      <c r="D204" s="54"/>
-      <c r="E204" s="48"/>
+      <c r="C204" s="47"/>
+      <c r="D204" s="53"/>
+      <c r="E204" s="47"/>
       <c r="F204" s="47"/>
-      <c r="G204" s="40" t="s">
+      <c r="G204" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H204" s="43" t="s">
-        <v>609</v>
-      </c>
-      <c r="I204" s="51"/>
-      <c r="J204" s="51"/>
-    </row>
-    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H204" s="42" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I204" s="50"/>
+      <c r="J204" s="50"/>
+    </row>
+    <row r="205" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="59"/>
       <c r="B205" s="53"/>
-      <c r="C205" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D205" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E205" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F205" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G205" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H205" s="41" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I205" s="49">
-        <v>15</v>
-      </c>
-      <c r="J205" s="49"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C205" s="48"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="48"/>
+      <c r="G205" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" s="43" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I205" s="51"/>
+      <c r="J205" s="51"/>
+    </row>
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="59"/>
       <c r="B206" s="53"/>
-      <c r="C206" s="47"/>
-      <c r="D206" s="53"/>
-      <c r="E206" s="47"/>
-      <c r="F206" s="47"/>
-      <c r="G206" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H206" s="42" t="s">
-        <v>1169</v>
-      </c>
-      <c r="I206" s="50"/>
-      <c r="J206" s="50"/>
+      <c r="C206" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D206" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E206" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F206" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G206" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H206" s="41" t="s">
+        <v>610</v>
+      </c>
+      <c r="I206" s="49">
+        <v>15</v>
+      </c>
+      <c r="J206" s="49"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="59"/>
@@ -18159,59 +18171,45 @@
       <c r="E207" s="47"/>
       <c r="F207" s="47"/>
       <c r="G207" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H207" s="42" t="s">
-        <v>1170</v>
+        <v>7</v>
+      </c>
+      <c r="H207" s="20" t="s">
+        <v>611</v>
       </c>
       <c r="I207" s="50"/>
       <c r="J207" s="50"/>
     </row>
-    <row r="208" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="60"/>
-      <c r="B208" s="54"/>
-      <c r="C208" s="48"/>
-      <c r="D208" s="54"/>
-      <c r="E208" s="48"/>
-      <c r="F208" s="48"/>
-      <c r="G208" s="40" t="s">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="59"/>
+      <c r="B208" s="53"/>
+      <c r="C208" s="47"/>
+      <c r="D208" s="53"/>
+      <c r="E208" s="47"/>
+      <c r="F208" s="47"/>
+      <c r="G208" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H208" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I208" s="50"/>
+      <c r="J208" s="50"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="59"/>
+      <c r="B209" s="53"/>
+      <c r="C209" s="47"/>
+      <c r="D209" s="53"/>
+      <c r="E209" s="47"/>
+      <c r="F209" s="47"/>
+      <c r="G209" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H208" s="43" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I208" s="51"/>
-      <c r="J208" s="51"/>
-    </row>
-    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="58" t="s">
-        <v>573</v>
-      </c>
-      <c r="B209" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="C209" s="46" t="s">
-        <v>575</v>
-      </c>
-      <c r="D209" s="52" t="s">
-        <v>579</v>
-      </c>
-      <c r="E209" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="F209" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="G209" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H209" s="41" t="s">
-        <v>581</v>
-      </c>
-      <c r="I209" s="49">
-        <v>25</v>
-      </c>
-      <c r="J209" s="49"/>
+      <c r="H209" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="I209" s="50"/>
+      <c r="J209" s="50"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="59"/>
@@ -18221,10 +18219,10 @@
       <c r="E210" s="47"/>
       <c r="F210" s="47"/>
       <c r="G210" s="39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H210" s="42" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="I210" s="50"/>
       <c r="J210" s="50"/>
@@ -18237,143 +18235,145 @@
       <c r="E211" s="47"/>
       <c r="F211" s="47"/>
       <c r="G211" s="39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H211" s="42" t="s">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="I211" s="50"/>
       <c r="J211" s="50"/>
     </row>
-    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="59"/>
       <c r="B212" s="53"/>
-      <c r="C212" s="47"/>
-      <c r="D212" s="53"/>
-      <c r="E212" s="47"/>
-      <c r="F212" s="47"/>
-      <c r="G212" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H212" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="I212" s="50"/>
-      <c r="J212" s="50"/>
-    </row>
-    <row r="213" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="48"/>
+      <c r="D212" s="54"/>
+      <c r="E212" s="48"/>
+      <c r="F212" s="48"/>
+      <c r="G212" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H212" s="43" t="s">
+        <v>615</v>
+      </c>
+      <c r="I212" s="51"/>
+      <c r="J212" s="51"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="59"/>
       <c r="B213" s="53"/>
-      <c r="C213" s="48"/>
-      <c r="D213" s="54"/>
-      <c r="E213" s="48"/>
-      <c r="F213" s="47"/>
-      <c r="G213" s="56"/>
-      <c r="H213" s="43" t="s">
-        <v>585</v>
-      </c>
-      <c r="I213" s="51"/>
-      <c r="J213" s="51"/>
-    </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C213" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D213" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E213" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F213" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G213" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H213" s="41" t="s">
+        <v>616</v>
+      </c>
+      <c r="I213" s="49">
+        <v>20</v>
+      </c>
+      <c r="J213" s="49"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="59"/>
       <c r="B214" s="53"/>
-      <c r="C214" s="46" t="s">
-        <v>576</v>
-      </c>
-      <c r="D214" s="52" t="s">
-        <v>580</v>
-      </c>
-      <c r="E214" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="F214" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="G214" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H214" s="41" t="s">
-        <v>586</v>
-      </c>
-      <c r="I214" s="49">
-        <v>10</v>
-      </c>
-      <c r="J214" s="49"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C214" s="47"/>
+      <c r="D214" s="53"/>
+      <c r="E214" s="47"/>
+      <c r="F214" s="47"/>
+      <c r="G214" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H214" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="I214" s="50"/>
+      <c r="J214" s="50"/>
+    </row>
+    <row r="215" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="59"/>
       <c r="B215" s="53"/>
-      <c r="C215" s="47"/>
-      <c r="D215" s="53"/>
-      <c r="E215" s="47"/>
-      <c r="F215" s="47"/>
-      <c r="G215" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H215" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="I215" s="50"/>
-      <c r="J215" s="50"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C215" s="48"/>
+      <c r="D215" s="54"/>
+      <c r="E215" s="48"/>
+      <c r="F215" s="48"/>
+      <c r="G215" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="I215" s="51"/>
+      <c r="J215" s="51"/>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="59"/>
       <c r="B216" s="53"/>
-      <c r="C216" s="47"/>
-      <c r="D216" s="53"/>
-      <c r="E216" s="47"/>
-      <c r="F216" s="47"/>
-      <c r="G216" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H216" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="I216" s="50"/>
-      <c r="J216" s="50"/>
-    </row>
-    <row r="217" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D216" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E216" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F216" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G216" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H216" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="I216" s="49">
+        <v>25</v>
+      </c>
+      <c r="J216" s="49"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="59"/>
       <c r="B217" s="53"/>
-      <c r="C217" s="48"/>
-      <c r="D217" s="54"/>
-      <c r="E217" s="48"/>
-      <c r="F217" s="48"/>
-      <c r="G217" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H217" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="I217" s="51"/>
-      <c r="J217" s="51"/>
-    </row>
-    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C217" s="47"/>
+      <c r="D217" s="53"/>
+      <c r="E217" s="47"/>
+      <c r="F217" s="47"/>
+      <c r="G217" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H217" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I217" s="50"/>
+      <c r="J217" s="50"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="59"/>
       <c r="B218" s="53"/>
-      <c r="C218" s="46" t="s">
-        <v>577</v>
-      </c>
-      <c r="D218" s="52" t="s">
-        <v>588</v>
-      </c>
-      <c r="E218" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="F218" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="G218" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H218" s="41" t="s">
-        <v>587</v>
-      </c>
-      <c r="I218" s="49">
-        <v>10</v>
-      </c>
-      <c r="J218" s="49"/>
+      <c r="C218" s="47"/>
+      <c r="D218" s="53"/>
+      <c r="E218" s="47"/>
+      <c r="F218" s="47"/>
+      <c r="G218" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="I218" s="50"/>
+      <c r="J218" s="50"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="59"/>
@@ -18383,71 +18383,71 @@
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H219" s="42" t="s">
-        <v>589</v>
+        <v>286</v>
       </c>
       <c r="I219" s="50"/>
       <c r="J219" s="50"/>
     </row>
-    <row r="220" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="59"/>
       <c r="B220" s="53"/>
-      <c r="C220" s="48"/>
-      <c r="D220" s="54"/>
-      <c r="E220" s="48"/>
+      <c r="C220" s="47"/>
+      <c r="D220" s="53"/>
+      <c r="E220" s="47"/>
       <c r="F220" s="47"/>
-      <c r="G220" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H220" s="43" t="s">
-        <v>590</v>
-      </c>
-      <c r="I220" s="51"/>
-      <c r="J220" s="51"/>
-    </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G220" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H220" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I220" s="50"/>
+      <c r="J220" s="50"/>
+    </row>
+    <row r="221" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="59"/>
       <c r="B221" s="53"/>
-      <c r="C221" s="46" t="s">
-        <v>578</v>
-      </c>
-      <c r="D221" s="52" t="s">
-        <v>591</v>
-      </c>
-      <c r="E221" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="F221" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="G221" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H221" s="41" t="s">
-        <v>592</v>
-      </c>
-      <c r="I221" s="49">
-        <v>15</v>
-      </c>
-      <c r="J221" s="49"/>
+      <c r="C221" s="48"/>
+      <c r="D221" s="54"/>
+      <c r="E221" s="48"/>
+      <c r="F221" s="48"/>
+      <c r="G221" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H221" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I221" s="51"/>
+      <c r="J221" s="51"/>
     </row>
     <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="59"/>
       <c r="B222" s="53"/>
-      <c r="C222" s="47"/>
-      <c r="D222" s="53"/>
-      <c r="E222" s="47"/>
-      <c r="F222" s="47"/>
-      <c r="G222" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H222" s="42" t="s">
-        <v>593</v>
-      </c>
-      <c r="I222" s="50"/>
-      <c r="J222" s="50"/>
+      <c r="C222" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D222" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E222" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F222" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="G222" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H222" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222" s="49">
+        <v>50</v>
+      </c>
+      <c r="J222" s="49"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="59"/>
@@ -18457,15 +18457,15 @@
       <c r="E223" s="47"/>
       <c r="F223" s="47"/>
       <c r="G223" s="39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H223" s="42" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="I223" s="50"/>
       <c r="J223" s="50"/>
     </row>
-    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="59"/>
       <c r="B224" s="53"/>
       <c r="C224" s="47"/>
@@ -18473,10 +18473,10 @@
       <c r="E224" s="47"/>
       <c r="F224" s="47"/>
       <c r="G224" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H224" s="42" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="I224" s="50"/>
       <c r="J224" s="50"/>
@@ -18489,10 +18489,10 @@
       <c r="E225" s="47"/>
       <c r="F225" s="47"/>
       <c r="G225" s="39" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H225" s="42" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="I225" s="50"/>
       <c r="J225" s="50"/>
@@ -18505,10 +18505,10 @@
       <c r="E226" s="48"/>
       <c r="F226" s="48"/>
       <c r="G226" s="40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H226" s="43" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="I226" s="51"/>
       <c r="J226" s="51"/>
@@ -19057,65 +19057,65 @@
     <mergeCell ref="F29:F32"/>
     <mergeCell ref="I29:I32"/>
     <mergeCell ref="J29:J32"/>
-    <mergeCell ref="A126:A167"/>
-    <mergeCell ref="B126:B167"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="E143:E146"/>
-    <mergeCell ref="F143:F146"/>
-    <mergeCell ref="I126:I128"/>
-    <mergeCell ref="J126:J128"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="D129:D134"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="F129:F134"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="I129:I134"/>
-    <mergeCell ref="J129:J134"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="J135:J137"/>
-    <mergeCell ref="C138:C142"/>
-    <mergeCell ref="D138:D142"/>
-    <mergeCell ref="E138:E142"/>
-    <mergeCell ref="F138:F142"/>
-    <mergeCell ref="I138:I142"/>
-    <mergeCell ref="J138:J142"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="I135:I137"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="F154:F156"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="J154:J156"/>
-    <mergeCell ref="I143:I146"/>
-    <mergeCell ref="J143:J146"/>
-    <mergeCell ref="C147:C153"/>
-    <mergeCell ref="D147:D153"/>
-    <mergeCell ref="E147:E153"/>
-    <mergeCell ref="F147:F153"/>
-    <mergeCell ref="I147:I153"/>
-    <mergeCell ref="J147:J153"/>
-    <mergeCell ref="C163:C167"/>
-    <mergeCell ref="D163:D167"/>
-    <mergeCell ref="E163:E167"/>
-    <mergeCell ref="F163:F167"/>
-    <mergeCell ref="I163:I167"/>
-    <mergeCell ref="J163:J167"/>
-    <mergeCell ref="C157:C162"/>
-    <mergeCell ref="D157:D162"/>
-    <mergeCell ref="E157:E162"/>
-    <mergeCell ref="F157:F162"/>
-    <mergeCell ref="I157:I162"/>
-    <mergeCell ref="J157:J162"/>
+    <mergeCell ref="A185:A226"/>
+    <mergeCell ref="B185:B226"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="E185:E187"/>
+    <mergeCell ref="F185:F187"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="F202:F205"/>
+    <mergeCell ref="I185:I187"/>
+    <mergeCell ref="J185:J187"/>
+    <mergeCell ref="C188:C193"/>
+    <mergeCell ref="D188:D193"/>
+    <mergeCell ref="E188:E193"/>
+    <mergeCell ref="F188:F193"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="I188:I193"/>
+    <mergeCell ref="J188:J193"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="J194:J196"/>
+    <mergeCell ref="C197:C201"/>
+    <mergeCell ref="D197:D201"/>
+    <mergeCell ref="E197:E201"/>
+    <mergeCell ref="F197:F201"/>
+    <mergeCell ref="I197:I201"/>
+    <mergeCell ref="J197:J201"/>
+    <mergeCell ref="G192:G193"/>
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="D194:D196"/>
+    <mergeCell ref="E194:E196"/>
+    <mergeCell ref="F194:F196"/>
+    <mergeCell ref="I194:I196"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="E213:E215"/>
+    <mergeCell ref="F213:F215"/>
+    <mergeCell ref="I213:I215"/>
+    <mergeCell ref="J213:J215"/>
+    <mergeCell ref="I202:I205"/>
+    <mergeCell ref="J202:J205"/>
+    <mergeCell ref="C206:C212"/>
+    <mergeCell ref="D206:D212"/>
+    <mergeCell ref="E206:E212"/>
+    <mergeCell ref="F206:F212"/>
+    <mergeCell ref="I206:I212"/>
+    <mergeCell ref="J206:J212"/>
+    <mergeCell ref="C222:C226"/>
+    <mergeCell ref="D222:D226"/>
+    <mergeCell ref="E222:E226"/>
+    <mergeCell ref="F222:F226"/>
+    <mergeCell ref="I222:I226"/>
+    <mergeCell ref="J222:J226"/>
+    <mergeCell ref="C216:C221"/>
+    <mergeCell ref="D216:D221"/>
+    <mergeCell ref="E216:E221"/>
+    <mergeCell ref="F216:F221"/>
+    <mergeCell ref="I216:I221"/>
+    <mergeCell ref="J216:J221"/>
     <mergeCell ref="A37:A80"/>
     <mergeCell ref="B37:B80"/>
     <mergeCell ref="C37:C40"/>
@@ -19179,69 +19179,69 @@
     <mergeCell ref="F69:F73"/>
     <mergeCell ref="G69:G70"/>
     <mergeCell ref="I69:I73"/>
-    <mergeCell ref="J168:J172"/>
-    <mergeCell ref="C173:C178"/>
-    <mergeCell ref="D173:D178"/>
-    <mergeCell ref="E173:E178"/>
-    <mergeCell ref="F173:F178"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="I173:I178"/>
-    <mergeCell ref="J173:J178"/>
-    <mergeCell ref="A168:A192"/>
-    <mergeCell ref="B168:B192"/>
-    <mergeCell ref="C168:C172"/>
-    <mergeCell ref="D168:D172"/>
-    <mergeCell ref="E168:E172"/>
-    <mergeCell ref="F168:F172"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="C179:C186"/>
-    <mergeCell ref="D179:D186"/>
-    <mergeCell ref="E179:E186"/>
-    <mergeCell ref="F179:F186"/>
-    <mergeCell ref="G179:G181"/>
-    <mergeCell ref="G168:G172"/>
-    <mergeCell ref="I168:I172"/>
-    <mergeCell ref="I179:I186"/>
-    <mergeCell ref="J179:J186"/>
-    <mergeCell ref="G182:G186"/>
-    <mergeCell ref="C187:C192"/>
-    <mergeCell ref="D187:D192"/>
-    <mergeCell ref="E187:E192"/>
-    <mergeCell ref="F187:F192"/>
-    <mergeCell ref="G187:G189"/>
-    <mergeCell ref="I187:I192"/>
-    <mergeCell ref="J187:J192"/>
-    <mergeCell ref="G190:G192"/>
-    <mergeCell ref="A193:A208"/>
-    <mergeCell ref="B193:B208"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="D193:D195"/>
-    <mergeCell ref="E193:E195"/>
-    <mergeCell ref="F193:F195"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="D202:D204"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="F202:F204"/>
-    <mergeCell ref="I193:I195"/>
-    <mergeCell ref="J193:J195"/>
-    <mergeCell ref="C196:C201"/>
-    <mergeCell ref="D196:D201"/>
-    <mergeCell ref="E196:E201"/>
-    <mergeCell ref="F196:F201"/>
-    <mergeCell ref="G196:G197"/>
-    <mergeCell ref="I196:I201"/>
-    <mergeCell ref="J196:J201"/>
-    <mergeCell ref="G198:G199"/>
-    <mergeCell ref="I202:I204"/>
-    <mergeCell ref="J202:J204"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="E205:E208"/>
-    <mergeCell ref="F205:F208"/>
-    <mergeCell ref="I205:I208"/>
-    <mergeCell ref="J205:J208"/>
+    <mergeCell ref="J126:J130"/>
+    <mergeCell ref="C131:C136"/>
+    <mergeCell ref="D131:D136"/>
+    <mergeCell ref="E131:E136"/>
+    <mergeCell ref="F131:F136"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="I131:I136"/>
+    <mergeCell ref="J131:J136"/>
+    <mergeCell ref="A126:A150"/>
+    <mergeCell ref="B126:B150"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="D126:D130"/>
+    <mergeCell ref="E126:E130"/>
+    <mergeCell ref="F126:F130"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="C137:C144"/>
+    <mergeCell ref="D137:D144"/>
+    <mergeCell ref="E137:E144"/>
+    <mergeCell ref="F137:F144"/>
+    <mergeCell ref="G137:G139"/>
+    <mergeCell ref="G126:G130"/>
+    <mergeCell ref="I126:I130"/>
+    <mergeCell ref="I137:I144"/>
+    <mergeCell ref="J137:J144"/>
+    <mergeCell ref="G140:G144"/>
+    <mergeCell ref="C145:C150"/>
+    <mergeCell ref="D145:D150"/>
+    <mergeCell ref="E145:E150"/>
+    <mergeCell ref="F145:F150"/>
+    <mergeCell ref="G145:G147"/>
+    <mergeCell ref="I145:I150"/>
+    <mergeCell ref="J145:J150"/>
+    <mergeCell ref="G148:G150"/>
+    <mergeCell ref="A169:A184"/>
+    <mergeCell ref="B169:B184"/>
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="E169:E171"/>
+    <mergeCell ref="F169:F171"/>
+    <mergeCell ref="G176:G177"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="D178:D180"/>
+    <mergeCell ref="E178:E180"/>
+    <mergeCell ref="F178:F180"/>
+    <mergeCell ref="I169:I171"/>
+    <mergeCell ref="J169:J171"/>
+    <mergeCell ref="C172:C177"/>
+    <mergeCell ref="D172:D177"/>
+    <mergeCell ref="E172:E177"/>
+    <mergeCell ref="F172:F177"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="I172:I177"/>
+    <mergeCell ref="J172:J177"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="I178:I180"/>
+    <mergeCell ref="J178:J180"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="D181:D184"/>
+    <mergeCell ref="E181:E184"/>
+    <mergeCell ref="F181:F184"/>
+    <mergeCell ref="I181:I184"/>
+    <mergeCell ref="J181:J184"/>
     <mergeCell ref="I81:I84"/>
     <mergeCell ref="J81:J84"/>
     <mergeCell ref="C85:C88"/>
@@ -19275,45 +19275,45 @@
     <mergeCell ref="G93:G94"/>
     <mergeCell ref="I93:I97"/>
     <mergeCell ref="J93:J97"/>
-    <mergeCell ref="A209:A226"/>
-    <mergeCell ref="B209:B226"/>
-    <mergeCell ref="C209:C213"/>
-    <mergeCell ref="D209:D213"/>
-    <mergeCell ref="E209:E213"/>
-    <mergeCell ref="F209:F213"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="D218:D220"/>
-    <mergeCell ref="E218:E220"/>
-    <mergeCell ref="F218:F220"/>
-    <mergeCell ref="I218:I220"/>
-    <mergeCell ref="J218:J220"/>
-    <mergeCell ref="C221:C226"/>
-    <mergeCell ref="D221:D226"/>
-    <mergeCell ref="E221:E226"/>
-    <mergeCell ref="F221:F226"/>
-    <mergeCell ref="I221:I226"/>
-    <mergeCell ref="J221:J226"/>
-    <mergeCell ref="I209:I213"/>
-    <mergeCell ref="J209:J213"/>
-    <mergeCell ref="G212:G213"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="D214:D217"/>
-    <mergeCell ref="E214:E217"/>
-    <mergeCell ref="F214:F217"/>
-    <mergeCell ref="I214:I217"/>
-    <mergeCell ref="J214:J217"/>
+    <mergeCell ref="A151:A168"/>
+    <mergeCell ref="B151:B168"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="D151:D155"/>
+    <mergeCell ref="E151:E155"/>
+    <mergeCell ref="F151:F155"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="E160:E162"/>
+    <mergeCell ref="F160:F162"/>
+    <mergeCell ref="I160:I162"/>
+    <mergeCell ref="J160:J162"/>
+    <mergeCell ref="C163:C168"/>
+    <mergeCell ref="D163:D168"/>
+    <mergeCell ref="E163:E168"/>
+    <mergeCell ref="F163:F168"/>
+    <mergeCell ref="I163:I168"/>
+    <mergeCell ref="J163:J168"/>
+    <mergeCell ref="I151:I155"/>
+    <mergeCell ref="J151:J155"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="E156:E159"/>
+    <mergeCell ref="F156:F159"/>
+    <mergeCell ref="I156:I159"/>
+    <mergeCell ref="J156:J159"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B126" r:id="rId1" xr:uid="{75A650CB-9797-43F2-8DF0-9B8A78984F50}"/>
-    <hyperlink ref="D126" r:id="rId2" xr:uid="{C6B44D91-EC12-4BB5-97E0-E565ACB79FF8}"/>
-    <hyperlink ref="D129" r:id="rId3" xr:uid="{DD8B3042-2D93-4413-BB21-50BF9F450F10}"/>
-    <hyperlink ref="D135" r:id="rId4" xr:uid="{FC0B40BD-6007-472F-9EDE-D0DD115D6D55}"/>
-    <hyperlink ref="D138" r:id="rId5" xr:uid="{B82C58D6-4989-4078-B125-54BCBA01558B}"/>
-    <hyperlink ref="D143" r:id="rId6" xr:uid="{B34631DA-0914-47F6-A288-F8D3A5B5E043}"/>
-    <hyperlink ref="D147" r:id="rId7" xr:uid="{9B87F72D-5A7C-4580-B988-5FD5A386886B}"/>
-    <hyperlink ref="D154" r:id="rId8" xr:uid="{B98831F1-DEFD-4379-A6A6-3DC4ADCB36AF}"/>
-    <hyperlink ref="D157" r:id="rId9" xr:uid="{0CD18E7A-33CF-48E4-B93D-D6C6449C228C}"/>
-    <hyperlink ref="D163" r:id="rId10" xr:uid="{10C4DF08-AE78-46A9-8B1B-D384BDADD3A3}"/>
+    <hyperlink ref="B185" r:id="rId1" xr:uid="{75A650CB-9797-43F2-8DF0-9B8A78984F50}"/>
+    <hyperlink ref="D185" r:id="rId2" xr:uid="{C6B44D91-EC12-4BB5-97E0-E565ACB79FF8}"/>
+    <hyperlink ref="D188" r:id="rId3" xr:uid="{DD8B3042-2D93-4413-BB21-50BF9F450F10}"/>
+    <hyperlink ref="D194" r:id="rId4" xr:uid="{FC0B40BD-6007-472F-9EDE-D0DD115D6D55}"/>
+    <hyperlink ref="D197" r:id="rId5" xr:uid="{B82C58D6-4989-4078-B125-54BCBA01558B}"/>
+    <hyperlink ref="D202" r:id="rId6" xr:uid="{B34631DA-0914-47F6-A288-F8D3A5B5E043}"/>
+    <hyperlink ref="D206" r:id="rId7" xr:uid="{9B87F72D-5A7C-4580-B988-5FD5A386886B}"/>
+    <hyperlink ref="D213" r:id="rId8" xr:uid="{B98831F1-DEFD-4379-A6A6-3DC4ADCB36AF}"/>
+    <hyperlink ref="D216" r:id="rId9" xr:uid="{0CD18E7A-33CF-48E4-B93D-D6C6449C228C}"/>
+    <hyperlink ref="D222" r:id="rId10" xr:uid="{10C4DF08-AE78-46A9-8B1B-D384BDADD3A3}"/>
     <hyperlink ref="B37" r:id="rId11" xr:uid="{779970DC-B12B-49A8-9637-38B284FBC24F}"/>
     <hyperlink ref="D37" r:id="rId12" xr:uid="{60AD523A-B611-406B-9113-3B865DDD6DD0}"/>
     <hyperlink ref="D41" r:id="rId13" xr:uid="{3241D913-0BD5-4421-9477-1A841D63BC08}"/>
@@ -19325,21 +19325,21 @@
     <hyperlink ref="D65" r:id="rId19" xr:uid="{F5443445-66D6-47FE-BC5C-521E937507A1}"/>
     <hyperlink ref="D69" r:id="rId20" xr:uid="{78075366-E71F-41C1-9900-A32C2CB52B54}"/>
     <hyperlink ref="D74" r:id="rId21" xr:uid="{41CAD87A-BB14-4F8B-A9BF-402A27F140A3}"/>
-    <hyperlink ref="B168" r:id="rId22" xr:uid="{B8FA9B23-BCBE-44E2-A6A6-24813FA9A06D}"/>
-    <hyperlink ref="D168" r:id="rId23" xr:uid="{5378F288-A8E0-4E51-81E5-BC65E5C51BE1}"/>
-    <hyperlink ref="D173" r:id="rId24" xr:uid="{56E9FA11-0A78-472F-AAD3-42E95C5772C7}"/>
-    <hyperlink ref="D179" r:id="rId25" xr:uid="{0AFF7FC6-926B-4B2F-BF9F-3C67DADE23B5}"/>
-    <hyperlink ref="D187" r:id="rId26" xr:uid="{9DAF2723-78AF-4CA0-BA54-687319E9B73B}"/>
-    <hyperlink ref="B209" r:id="rId27" xr:uid="{8577786F-0CAC-4479-8922-829F50FA0DCA}"/>
-    <hyperlink ref="D209" r:id="rId28" xr:uid="{A8F3EA27-1842-45BE-BA87-FFD4294C523E}"/>
-    <hyperlink ref="D214" r:id="rId29" xr:uid="{0A876DE9-6263-4DDA-AAAE-3437D68788A9}"/>
-    <hyperlink ref="D218" r:id="rId30" xr:uid="{A47D0DEE-5B8F-4DE0-AC52-214008A98FB7}"/>
-    <hyperlink ref="D221" r:id="rId31" xr:uid="{4B306BC8-65A5-4595-BB55-FD1BB025CC92}"/>
-    <hyperlink ref="B193" r:id="rId32" xr:uid="{57208AEB-E9DA-46C5-BE9A-63E4062FCE36}"/>
-    <hyperlink ref="D193" r:id="rId33" xr:uid="{88600D02-C3DA-4660-B346-4110C630C8AE}"/>
-    <hyperlink ref="D196" r:id="rId34" xr:uid="{75F84439-4879-4355-9243-8F9ED1E1C247}"/>
-    <hyperlink ref="D202" r:id="rId35" xr:uid="{2D698AAE-C626-4F5F-8560-6214E068DCFC}"/>
-    <hyperlink ref="D205" r:id="rId36" xr:uid="{48D86450-29E8-416B-8B8A-725E6406F883}"/>
+    <hyperlink ref="B126" r:id="rId22" xr:uid="{B8FA9B23-BCBE-44E2-A6A6-24813FA9A06D}"/>
+    <hyperlink ref="D126" r:id="rId23" xr:uid="{5378F288-A8E0-4E51-81E5-BC65E5C51BE1}"/>
+    <hyperlink ref="D131" r:id="rId24" xr:uid="{56E9FA11-0A78-472F-AAD3-42E95C5772C7}"/>
+    <hyperlink ref="D137" r:id="rId25" xr:uid="{0AFF7FC6-926B-4B2F-BF9F-3C67DADE23B5}"/>
+    <hyperlink ref="D145" r:id="rId26" xr:uid="{9DAF2723-78AF-4CA0-BA54-687319E9B73B}"/>
+    <hyperlink ref="B151" r:id="rId27" xr:uid="{8577786F-0CAC-4479-8922-829F50FA0DCA}"/>
+    <hyperlink ref="D151" r:id="rId28" xr:uid="{A8F3EA27-1842-45BE-BA87-FFD4294C523E}"/>
+    <hyperlink ref="D156" r:id="rId29" xr:uid="{0A876DE9-6263-4DDA-AAAE-3437D68788A9}"/>
+    <hyperlink ref="D160" r:id="rId30" xr:uid="{A47D0DEE-5B8F-4DE0-AC52-214008A98FB7}"/>
+    <hyperlink ref="D163" r:id="rId31" xr:uid="{4B306BC8-65A5-4595-BB55-FD1BB025CC92}"/>
+    <hyperlink ref="B169" r:id="rId32" xr:uid="{57208AEB-E9DA-46C5-BE9A-63E4062FCE36}"/>
+    <hyperlink ref="D169" r:id="rId33" xr:uid="{88600D02-C3DA-4660-B346-4110C630C8AE}"/>
+    <hyperlink ref="D172" r:id="rId34" xr:uid="{75F84439-4879-4355-9243-8F9ED1E1C247}"/>
+    <hyperlink ref="D178" r:id="rId35" xr:uid="{2D698AAE-C626-4F5F-8560-6214E068DCFC}"/>
+    <hyperlink ref="D181" r:id="rId36" xr:uid="{48D86450-29E8-416B-8B8A-725E6406F883}"/>
     <hyperlink ref="B17" r:id="rId37" xr:uid="{0E2E3BF7-BB66-44EE-BF73-B99801D8B2AB}"/>
     <hyperlink ref="D17" r:id="rId38" xr:uid="{7CEAC213-07AC-4A4C-8DFA-C4E59F6A2EDD}"/>
     <hyperlink ref="D21" r:id="rId39" xr:uid="{73A4AA4D-5301-43F3-BF61-AA1D3324DC9B}"/>
